--- a/4 9.xlsx
+++ b/4 9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JT_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\export-report-JT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD10EA-2C70-4A0C-9A89-ADD97F95AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D302583-443E-423E-ABBE-B95DE1C643C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="2724" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
   <si>
     <t>Ngày</t>
   </si>
@@ -588,13 +588,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45904</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45904</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45904</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45904</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45904</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45904</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45904</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45904</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45904</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45904</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45904</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45904</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45904</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45904</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45904</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45904</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45904</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45904</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45904</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45904</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45904</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45904</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45904</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45904</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45904</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45904</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45904</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45904</v>
       </c>
@@ -2218,1069 +2218,252 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="2">
-        <v>92</v>
-      </c>
-      <c r="J30" s="2">
-        <v>61</v>
-      </c>
-      <c r="K30" s="2">
-        <v>20</v>
-      </c>
-      <c r="L30" s="2">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2">
-        <v>31</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O30" s="2">
-        <v>21</v>
-      </c>
-      <c r="P30" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="2">
-        <v>92</v>
-      </c>
-      <c r="J31" s="2">
-        <v>61</v>
-      </c>
-      <c r="K31" s="2">
-        <v>20</v>
-      </c>
-      <c r="L31" s="2">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2">
-        <v>31</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O31" s="2">
-        <v>21</v>
-      </c>
-      <c r="P31" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="2">
-        <v>92</v>
-      </c>
-      <c r="J32" s="2">
-        <v>61</v>
-      </c>
-      <c r="K32" s="2">
-        <v>20</v>
-      </c>
-      <c r="L32" s="2">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2">
-        <v>31</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O32" s="2">
-        <v>21</v>
-      </c>
-      <c r="P32" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>2</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="2">
-        <v>92</v>
-      </c>
-      <c r="J33" s="2">
-        <v>61</v>
-      </c>
-      <c r="K33" s="2">
-        <v>20</v>
-      </c>
-      <c r="L33" s="2">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2">
-        <v>31</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O33" s="2">
-        <v>21</v>
-      </c>
-      <c r="P33" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>2</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="2">
-        <v>92</v>
-      </c>
-      <c r="J34" s="2">
-        <v>61</v>
-      </c>
-      <c r="K34" s="2">
-        <v>20</v>
-      </c>
-      <c r="L34" s="2">
-        <v>20</v>
-      </c>
-      <c r="M34" s="2">
-        <v>31</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O34" s="2">
-        <v>21</v>
-      </c>
-      <c r="P34" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>2</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="2">
-        <v>92</v>
-      </c>
-      <c r="J35" s="2">
-        <v>61</v>
-      </c>
-      <c r="K35" s="2">
-        <v>20</v>
-      </c>
-      <c r="L35" s="2">
-        <v>20</v>
-      </c>
-      <c r="M35" s="2">
-        <v>31</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O35" s="2">
-        <v>21</v>
-      </c>
-      <c r="P35" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>2</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="2">
-        <v>92</v>
-      </c>
-      <c r="J36" s="2">
-        <v>61</v>
-      </c>
-      <c r="K36" s="2">
-        <v>20</v>
-      </c>
-      <c r="L36" s="2">
-        <v>20</v>
-      </c>
-      <c r="M36" s="2">
-        <v>31</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O36" s="2">
-        <v>21</v>
-      </c>
-      <c r="P36" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>2</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="2">
-        <v>92</v>
-      </c>
-      <c r="J37" s="2">
-        <v>61</v>
-      </c>
-      <c r="K37" s="2">
-        <v>20</v>
-      </c>
-      <c r="L37" s="2">
-        <v>20</v>
-      </c>
-      <c r="M37" s="2">
-        <v>31</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O37" s="2">
-        <v>21</v>
-      </c>
-      <c r="P37" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>2</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="2">
-        <v>92</v>
-      </c>
-      <c r="J38" s="2">
-        <v>61</v>
-      </c>
-      <c r="K38" s="2">
-        <v>20</v>
-      </c>
-      <c r="L38" s="2">
-        <v>20</v>
-      </c>
-      <c r="M38" s="2">
-        <v>31</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O38" s="2">
-        <v>21</v>
-      </c>
-      <c r="P38" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>2</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="2">
-        <v>92</v>
-      </c>
-      <c r="J39" s="2">
-        <v>61</v>
-      </c>
-      <c r="K39" s="2">
-        <v>20</v>
-      </c>
-      <c r="L39" s="2">
-        <v>20</v>
-      </c>
-      <c r="M39" s="2">
-        <v>31</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O39" s="2">
-        <v>21</v>
-      </c>
-      <c r="P39" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>2</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="2">
-        <v>92</v>
-      </c>
-      <c r="J40" s="2">
-        <v>61</v>
-      </c>
-      <c r="K40" s="2">
-        <v>20</v>
-      </c>
-      <c r="L40" s="2">
-        <v>20</v>
-      </c>
-      <c r="M40" s="2">
-        <v>31</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O40" s="2">
-        <v>21</v>
-      </c>
-      <c r="P40" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>2</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="2">
-        <v>92</v>
-      </c>
-      <c r="J41" s="2">
-        <v>61</v>
-      </c>
-      <c r="K41" s="2">
-        <v>20</v>
-      </c>
-      <c r="L41" s="2">
-        <v>20</v>
-      </c>
-      <c r="M41" s="2">
-        <v>31</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O41" s="2">
-        <v>21</v>
-      </c>
-      <c r="P41" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>2</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="2">
-        <v>92</v>
-      </c>
-      <c r="J42" s="2">
-        <v>61</v>
-      </c>
-      <c r="K42" s="2">
-        <v>20</v>
-      </c>
-      <c r="L42" s="2">
-        <v>20</v>
-      </c>
-      <c r="M42" s="2">
-        <v>31</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O42" s="2">
-        <v>21</v>
-      </c>
-      <c r="P42" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>2</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="2">
-        <v>92</v>
-      </c>
-      <c r="J43" s="2">
-        <v>61</v>
-      </c>
-      <c r="K43" s="2">
-        <v>20</v>
-      </c>
-      <c r="L43" s="2">
-        <v>20</v>
-      </c>
-      <c r="M43" s="2">
-        <v>31</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O43" s="2">
-        <v>21</v>
-      </c>
-      <c r="P43" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>2</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="2">
-        <v>92</v>
-      </c>
-      <c r="J44" s="2">
-        <v>61</v>
-      </c>
-      <c r="K44" s="2">
-        <v>20</v>
-      </c>
-      <c r="L44" s="2">
-        <v>20</v>
-      </c>
-      <c r="M44" s="2">
-        <v>31</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O44" s="2">
-        <v>21</v>
-      </c>
-      <c r="P44" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>2</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="2">
-        <v>92</v>
-      </c>
-      <c r="J45" s="2">
-        <v>61</v>
-      </c>
-      <c r="K45" s="2">
-        <v>20</v>
-      </c>
-      <c r="L45" s="2">
-        <v>20</v>
-      </c>
-      <c r="M45" s="2">
-        <v>31</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O45" s="2">
-        <v>21</v>
-      </c>
-      <c r="P45" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>2</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="2">
-        <v>92</v>
-      </c>
-      <c r="J46" s="2">
-        <v>61</v>
-      </c>
-      <c r="K46" s="2">
-        <v>20</v>
-      </c>
-      <c r="L46" s="2">
-        <v>20</v>
-      </c>
-      <c r="M46" s="2">
-        <v>31</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O46" s="2">
-        <v>21</v>
-      </c>
-      <c r="P46" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>2</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="2">
-        <v>92</v>
-      </c>
-      <c r="J47" s="2">
-        <v>61</v>
-      </c>
-      <c r="K47" s="2">
-        <v>20</v>
-      </c>
-      <c r="L47" s="2">
-        <v>20</v>
-      </c>
-      <c r="M47" s="2">
-        <v>31</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O47" s="2">
-        <v>21</v>
-      </c>
-      <c r="P47" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>2</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="2">
-        <v>92</v>
-      </c>
-      <c r="J48" s="2">
-        <v>61</v>
-      </c>
-      <c r="K48" s="2">
-        <v>20</v>
-      </c>
-      <c r="L48" s="2">
-        <v>20</v>
-      </c>
-      <c r="M48" s="2">
-        <v>31</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="O48" s="2">
-        <v>21</v>
-      </c>
-      <c r="P48" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>2</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
